--- a/pred_ohlcv/54_21/2019-11-01 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 CMT ohlcv.xlsx
@@ -2576,7 +2576,7 @@
         <v>-563749.1252933219</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-564734.1253933219</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-581954.1149933218</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-932984.4699933218</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-961858.7974933218</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-961430.0257933218</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1081430.025793322</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1243525.852493322</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1236074.101993322</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1166064.263403377</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1101454.263403377</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1101454.263403377</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1140521.446203378</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1140521.446203378</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1135511.446203378</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1135511.446203378</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1089595.159603378</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1073395.159603378</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1073395.159603378</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1121595.159603378</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1121047.186103377</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1127731.522303378</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1127731.522303378</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1254208.720003377</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1256723.338803377</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1256723.338803377</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1256723.338803377</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1244899.550303377</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1426218.949203377</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1425780.352712149</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1482940.361320921</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1481880.753720921</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1481880.753720921</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1503280.753720921</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1503270.753720921</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1503260.753720921</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1507579.517620921</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1507569.517620921</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1507569.517620921</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1311687.730420921</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1619905.990920921</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1619905.990920921</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2166334.60902092</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2166334.60902092</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2065184.058686423</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2065184.058686423</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2151807.390486422</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2137787.265586422</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2123455.238286422</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-2073593.401486422</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-2073593.401486422</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2127197.588486422</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2127197.588486422</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2127197.588486422</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2127197.588486422</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2027668.973786422</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1756657.585786422</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1771637.564086422</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1757298.997386422</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1733653.083886422</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1733693.083886422</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1730562.037886422</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1704562.037886422</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1717562.037886422</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1697562.037886422</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1652962.037886422</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1639962.037886422</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1642797.576586422</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1614908.642986421</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1608099.642986421</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1627225.576586422</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1688712.957286422</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1688712.957286422</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1688712.957286422</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1689764.571186422</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1683114.195936422</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1683114.195936422</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1683114.195936422</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1683114.195936422</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1683114.195936422</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1642051.476936422</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1642051.476936422</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1629507.232736422</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1549616.794636422</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1479486.680155469</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1472519.342155469</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1481697.872755469</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1481697.872755469</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2373043.113155469</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 CMT ohlcv.xlsx
@@ -2576,7 +2576,7 @@
         <v>-563749.1252933219</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-564734.1253933219</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-581954.1149933218</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-932984.4699933218</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-961858.7974933218</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-961430.0257933218</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1081430.025793322</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1243525.852493322</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1236074.101993322</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1619905.990920921</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1619905.990920921</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2151807.390486422</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2137787.265586422</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2123455.238286422</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-2099593.401486422</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-2073593.401486422</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-2073593.401486422</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2127197.588486422</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2127197.588486422</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2127197.588486422</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2127197.588486422</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2027668.973786422</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2027668.973786422</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1981391.290786422</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1981391.290786422</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1981391.290786422</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1981391.290786422</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1992466.897586422</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1973941.757286422</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1865430.757286422</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1756657.585786422</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1771637.564086422</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1757298.997386422</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1733653.083886422</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1733693.083886422</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1730562.037886422</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1704562.037886422</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1717562.037886422</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1697562.037886422</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1652962.037886422</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1639962.037886422</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1642797.576586422</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1614908.642986421</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1608099.642986421</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1627225.576586422</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1688712.957286422</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1688712.957286422</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1688712.957286422</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1689764.571186422</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1683905.958586422</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1683114.195936422</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1683114.195936422</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1683114.195936422</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1683114.195936422</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1683114.195936422</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1642051.476936422</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1642051.476936422</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1629507.232736422</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1549616.794636422</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1617306.905236422</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1644146.941436422</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1738345.536036422</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-1375281.579836422</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1616568.450636422</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1005276.502355469</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1479486.680155469</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1472519.342155469</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1481697.872755469</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2373043.113155469</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
